--- a/performance/performance_es_2.xlsx
+++ b/performance/performance_es_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi\SNA\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09F795E-4619-423D-9E68-D703B35F6C11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDF5935-8769-4E24-8061-467218C5DA5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="5640" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,10 +438,15 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.54296875" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -493,6 +498,9 @@
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D3">
+        <v>1554.2362387180301</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -569,6 +577,12 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="D11">
+        <v>269.693302631378</v>
+      </c>
+      <c r="E11">
+        <v>265.10288429260203</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">

--- a/performance/performance_es_2.xlsx
+++ b/performance/performance_es_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi\SNA\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDF5935-8769-4E24-8061-467218C5DA5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8335DD9-72F2-4E26-8A25-2B30C16FEC18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,6 +584,9 @@
       <c r="E11">
         <v>265.10288429260203</v>
       </c>
+      <c r="F11">
+        <v>267.00966644287098</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">

--- a/performance/performance_es_2.xlsx
+++ b/performance/performance_es_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi\SNA\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8335DD9-72F2-4E26-8A25-2B30C16FEC18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9345BF-CEFD-4926-A5CD-35217C5AF4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/performance/performance_es_2.xlsx
+++ b/performance/performance_es_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi\SNA\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9345BF-CEFD-4926-A5CD-35217C5AF4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DF724C-1622-4055-BA0B-1B366D585B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7700" yWindow="1960" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,6 +493,9 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D2">
+        <v>9.2720985412597601E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">

--- a/performance/performance_es_2.xlsx
+++ b/performance/performance_es_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi\SNA\performance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luigi\PycharmProjects\SNA\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DF724C-1622-4055-BA0B-1B366D585B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353754F1-EE70-42B5-8AE7-D3EB6F098F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="1960" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">ALGORITMO </t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>BETWEENNESS PARALLEL</t>
-  </si>
-  <si>
-    <t>HITS NETWORKX</t>
   </si>
   <si>
     <t xml:space="preserve">HITS PARALLEL </t>
@@ -438,7 +435,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,18 +557,16 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>15.047101974487299</v>
@@ -579,7 +574,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>269.693302631378</v>
@@ -593,7 +588,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>303.06279754638598</v>
@@ -601,7 +596,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>13.9894342422485</v>
